--- a/xlsx_files/CM Sophomore.xlsx
+++ b/xlsx_files/CM Sophomore.xlsx
@@ -43,7 +43,7 @@
       <sz val="14"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill/>
     </fill>
@@ -54,6 +54,30 @@
       <patternFill patternType="solid">
         <fgColor rgb="00E0E0E0"/>
         <bgColor rgb="00E0E0E0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFFF"/>
+        <bgColor rgb="00FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D0CECE"/>
+        <bgColor rgb="00D0CECE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0092D050"/>
+        <bgColor rgb="0092D050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -96,7 +120,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -108,11 +132,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -543,20 +576,11 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="D6" s="5" t="inlineStr">
-        <is>
-          <t>INTRODUCTION TO STATISTICS
-Mukhammadmuso Abduzhabbarov
-Red classroom
-09:00-10:30</t>
-        </is>
-      </c>
       <c r="F6" s="5" t="inlineStr">
         <is>
-          <t>INTRODUCTION TO STATISTICS
-Mukhammadmuso Abduzhabbarov
-Yellow classroom
-09:00-10:30</t>
+          <t>Introduction to Statistics
+09:00-10:30
+room:Yellow classroom: 209</t>
         </is>
       </c>
     </row>
@@ -566,7 +590,6 @@
           <t>09:15</t>
         </is>
       </c>
-      <c r="D7" s="6" t="n"/>
       <c r="F7" s="6" t="n"/>
     </row>
     <row r="8">
@@ -575,7 +598,6 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="D8" s="6" t="n"/>
       <c r="F8" s="6" t="n"/>
     </row>
     <row r="9">
@@ -584,7 +606,6 @@
           <t>09:45</t>
         </is>
       </c>
-      <c r="D9" s="6" t="n"/>
       <c r="F9" s="6" t="n"/>
     </row>
     <row r="10">
@@ -593,7 +614,6 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="D10" s="6" t="n"/>
       <c r="F10" s="6" t="n"/>
     </row>
     <row r="11">
@@ -602,7 +622,6 @@
           <t>10:15</t>
         </is>
       </c>
-      <c r="D11" s="7" t="n"/>
       <c r="F11" s="7" t="n"/>
     </row>
     <row r="12">
@@ -625,6 +644,34 @@
           <t>11:00</t>
         </is>
       </c>
+      <c r="C14" s="8" t="inlineStr">
+        <is>
+          <t>Ecology
+11:00-12:30
+room:Creative room: 104</t>
+        </is>
+      </c>
+      <c r="D14" s="9" t="inlineStr">
+        <is>
+          <t>Introduction to Statistics
+11:00-12:30
+room:Grey classroom: 203</t>
+        </is>
+      </c>
+      <c r="E14" s="8" t="inlineStr">
+        <is>
+          <t>Media Production Radio
+11:00-12:30
+room:Creative room: 104</t>
+        </is>
+      </c>
+      <c r="F14" s="8" t="inlineStr">
+        <is>
+          <t>Ecology
+11:00-12:30
+room:Creative room: 104</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
@@ -632,6 +679,10 @@
           <t>11:15</t>
         </is>
       </c>
+      <c r="C15" s="6" t="n"/>
+      <c r="D15" s="6" t="n"/>
+      <c r="E15" s="6" t="n"/>
+      <c r="F15" s="6" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="4" t="inlineStr">
@@ -639,6 +690,10 @@
           <t>11:30</t>
         </is>
       </c>
+      <c r="C16" s="6" t="n"/>
+      <c r="D16" s="6" t="n"/>
+      <c r="E16" s="6" t="n"/>
+      <c r="F16" s="6" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
@@ -646,6 +701,10 @@
           <t>11:45</t>
         </is>
       </c>
+      <c r="C17" s="6" t="n"/>
+      <c r="D17" s="6" t="n"/>
+      <c r="E17" s="6" t="n"/>
+      <c r="F17" s="6" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="4" t="inlineStr">
@@ -653,6 +712,10 @@
           <t>12:00</t>
         </is>
       </c>
+      <c r="C18" s="6" t="n"/>
+      <c r="D18" s="6" t="n"/>
+      <c r="E18" s="6" t="n"/>
+      <c r="F18" s="6" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
@@ -660,6 +723,10 @@
           <t>12:15</t>
         </is>
       </c>
+      <c r="C19" s="7" t="n"/>
+      <c r="D19" s="7" t="n"/>
+      <c r="E19" s="7" t="n"/>
+      <c r="F19" s="7" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
@@ -709,6 +776,34 @@
           <t>14:00</t>
         </is>
       </c>
+      <c r="B26" s="8" t="inlineStr">
+        <is>
+          <t>Media Production Radio
+14:00-15:30
+room:Creative room: 104</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="inlineStr">
+        <is>
+          <t>History 2: Making Central Asia
+14:00-15:30
+room:Creative room: 104</t>
+        </is>
+      </c>
+      <c r="D26" s="8" t="inlineStr">
+        <is>
+          <t>Visual Design
+14:00-15:30
+room:Creative room: 104</t>
+        </is>
+      </c>
+      <c r="F26" s="8" t="inlineStr">
+        <is>
+          <t>History 2: Making Central Asia
+14:00-15:30
+room:Creative room: 104</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="inlineStr">
@@ -716,6 +811,10 @@
           <t>14:15</t>
         </is>
       </c>
+      <c r="B27" s="6" t="n"/>
+      <c r="C27" s="6" t="n"/>
+      <c r="D27" s="6" t="n"/>
+      <c r="F27" s="6" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="4" t="inlineStr">
@@ -723,6 +822,10 @@
           <t>14:30</t>
         </is>
       </c>
+      <c r="B28" s="6" t="n"/>
+      <c r="C28" s="6" t="n"/>
+      <c r="D28" s="6" t="n"/>
+      <c r="F28" s="6" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="4" t="inlineStr">
@@ -730,6 +833,10 @@
           <t>14:45</t>
         </is>
       </c>
+      <c r="B29" s="6" t="n"/>
+      <c r="C29" s="6" t="n"/>
+      <c r="D29" s="6" t="n"/>
+      <c r="F29" s="6" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="4" t="inlineStr">
@@ -737,6 +844,10 @@
           <t>15:00</t>
         </is>
       </c>
+      <c r="B30" s="6" t="n"/>
+      <c r="C30" s="6" t="n"/>
+      <c r="D30" s="6" t="n"/>
+      <c r="F30" s="6" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
@@ -744,6 +855,10 @@
           <t>15:15</t>
         </is>
       </c>
+      <c r="B31" s="7" t="n"/>
+      <c r="C31" s="7" t="n"/>
+      <c r="D31" s="7" t="n"/>
+      <c r="F31" s="7" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="4" t="inlineStr">
@@ -765,12 +880,18 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="F34" s="5" t="inlineStr">
-        <is>
-          <t>INTRODUCTION TO MACROECONOMICS
-Bernard Musyck
-Green classroom
-16:00-17:30</t>
+      <c r="B34" s="8" t="inlineStr">
+        <is>
+          <t>Visual Design
+16:00-17:30
+room:Creative room: 104</t>
+        </is>
+      </c>
+      <c r="F34" s="10" t="inlineStr">
+        <is>
+          <t>Introduction to Macroeconomics
+16:00-17:30
+room:Green classroom: 204</t>
         </is>
       </c>
     </row>
@@ -780,6 +901,7 @@
           <t>16:15</t>
         </is>
       </c>
+      <c r="B35" s="6" t="n"/>
       <c r="F35" s="6" t="n"/>
     </row>
     <row r="36">
@@ -788,6 +910,7 @@
           <t>16:30</t>
         </is>
       </c>
+      <c r="B36" s="6" t="n"/>
       <c r="F36" s="6" t="n"/>
     </row>
     <row r="37">
@@ -796,6 +919,7 @@
           <t>16:45</t>
         </is>
       </c>
+      <c r="B37" s="6" t="n"/>
       <c r="F37" s="6" t="n"/>
     </row>
     <row r="38">
@@ -804,6 +928,7 @@
           <t>17:00</t>
         </is>
       </c>
+      <c r="B38" s="6" t="n"/>
       <c r="F38" s="6" t="n"/>
     </row>
     <row r="39">
@@ -812,6 +937,7 @@
           <t>17:15</t>
         </is>
       </c>
+      <c r="B39" s="7" t="n"/>
       <c r="F39" s="7" t="n"/>
     </row>
     <row r="40">
@@ -1004,17 +1130,25 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="18">
+    <mergeCell ref="F6:F11"/>
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="F26:F31"/>
+    <mergeCell ref="D26:D31"/>
+    <mergeCell ref="C26:C31"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="B1:G1"/>
+    <mergeCell ref="F14:F19"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="D3:D4"/>
+    <mergeCell ref="B34:B39"/>
     <mergeCell ref="F34:F39"/>
-    <mergeCell ref="D6:D11"/>
-    <mergeCell ref="F6:F11"/>
+    <mergeCell ref="D14:D19"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="E14:E19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/xlsx_files/CM Sophomore.xlsx
+++ b/xlsx_files/CM Sophomore.xlsx
@@ -137,10 +137,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -646,26 +646,26 @@
       </c>
       <c r="C14" s="8" t="inlineStr">
         <is>
+          <t>Introduction to Macroeconomics
+11:00-12:30
+room:Grey classroom: 203</t>
+        </is>
+      </c>
+      <c r="D14" s="9" t="inlineStr">
+        <is>
           <t>Ecology
 11:00-12:30
 room:Creative room: 104</t>
         </is>
       </c>
-      <c r="D14" s="9" t="inlineStr">
-        <is>
-          <t>Introduction to Statistics
-11:00-12:30
-room:Grey classroom: 203</t>
-        </is>
-      </c>
-      <c r="E14" s="8" t="inlineStr">
+      <c r="E14" s="9" t="inlineStr">
         <is>
           <t>Media Production Radio
 11:00-12:30
 room:Creative room: 104</t>
         </is>
       </c>
-      <c r="F14" s="8" t="inlineStr">
+      <c r="F14" s="9" t="inlineStr">
         <is>
           <t>Ecology
 11:00-12:30
@@ -776,28 +776,28 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B26" s="8" t="inlineStr">
+      <c r="B26" s="9" t="inlineStr">
         <is>
           <t>Media Production Radio
 14:00-15:30
 room:Creative room: 104</t>
         </is>
       </c>
-      <c r="C26" s="8" t="inlineStr">
+      <c r="C26" s="9" t="inlineStr">
         <is>
           <t>History 2: Making Central Asia
 14:00-15:30
 room:Creative room: 104</t>
         </is>
       </c>
-      <c r="D26" s="8" t="inlineStr">
+      <c r="D26" s="9" t="inlineStr">
         <is>
           <t>Visual Design
 14:00-15:30
 room:Creative room: 104</t>
         </is>
       </c>
-      <c r="F26" s="8" t="inlineStr">
+      <c r="F26" s="9" t="inlineStr">
         <is>
           <t>History 2: Making Central Asia
 14:00-15:30
@@ -880,7 +880,7 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="B34" s="8" t="inlineStr">
+      <c r="B34" s="9" t="inlineStr">
         <is>
           <t>Visual Design
 16:00-17:30

--- a/xlsx_files/CM Sophomore.xlsx
+++ b/xlsx_files/CM Sophomore.xlsx
@@ -651,16 +651,16 @@
 room:Grey classroom: 203</t>
         </is>
       </c>
-      <c r="D14" s="9" t="inlineStr">
+      <c r="D14" s="8" t="inlineStr">
+        <is>
+          <t>Introduction to Statistics
+11:00-12:30
+room:Grey classroom: 203</t>
+        </is>
+      </c>
+      <c r="E14" s="9" t="inlineStr">
         <is>
           <t>Ecology
-11:00-12:30
-room:Creative room: 104</t>
-        </is>
-      </c>
-      <c r="E14" s="9" t="inlineStr">
-        <is>
-          <t>Media Production Radio
 11:00-12:30
 room:Creative room: 104</t>
         </is>
@@ -792,6 +792,13 @@
       </c>
       <c r="D26" s="9" t="inlineStr">
         <is>
+          <t>Media Production Radio
+14:00-15:30
+room:Creative room: 104</t>
+        </is>
+      </c>
+      <c r="E26" s="9" t="inlineStr">
+        <is>
           <t>Visual Design
 14:00-15:30
 room:Creative room: 104</t>
@@ -814,6 +821,7 @@
       <c r="B27" s="6" t="n"/>
       <c r="C27" s="6" t="n"/>
       <c r="D27" s="6" t="n"/>
+      <c r="E27" s="6" t="n"/>
       <c r="F27" s="6" t="n"/>
     </row>
     <row r="28">
@@ -825,6 +833,7 @@
       <c r="B28" s="6" t="n"/>
       <c r="C28" s="6" t="n"/>
       <c r="D28" s="6" t="n"/>
+      <c r="E28" s="6" t="n"/>
       <c r="F28" s="6" t="n"/>
     </row>
     <row r="29">
@@ -836,6 +845,7 @@
       <c r="B29" s="6" t="n"/>
       <c r="C29" s="6" t="n"/>
       <c r="D29" s="6" t="n"/>
+      <c r="E29" s="6" t="n"/>
       <c r="F29" s="6" t="n"/>
     </row>
     <row r="30">
@@ -847,6 +857,7 @@
       <c r="B30" s="6" t="n"/>
       <c r="C30" s="6" t="n"/>
       <c r="D30" s="6" t="n"/>
+      <c r="E30" s="6" t="n"/>
       <c r="F30" s="6" t="n"/>
     </row>
     <row r="31">
@@ -858,6 +869,7 @@
       <c r="B31" s="7" t="n"/>
       <c r="C31" s="7" t="n"/>
       <c r="D31" s="7" t="n"/>
+      <c r="E31" s="7" t="n"/>
       <c r="F31" s="7" t="n"/>
     </row>
     <row r="32">
@@ -1130,25 +1142,26 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="19">
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="D26:D31"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="F34:F39"/>
     <mergeCell ref="F6:F11"/>
-    <mergeCell ref="B26:B31"/>
-    <mergeCell ref="F26:F31"/>
-    <mergeCell ref="D26:D31"/>
-    <mergeCell ref="C26:C31"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="F14:F19"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="B34:B39"/>
-    <mergeCell ref="F34:F39"/>
-    <mergeCell ref="D14:D19"/>
     <mergeCell ref="C14:C19"/>
     <mergeCell ref="E14:E19"/>
+    <mergeCell ref="C26:C31"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="F26:F31"/>
+    <mergeCell ref="B34:B39"/>
+    <mergeCell ref="E26:E31"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="D14:D19"/>
+    <mergeCell ref="F14:F19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/xlsx_files/CM Sophomore.xlsx
+++ b/xlsx_files/CM Sophomore.xlsx
@@ -58,12 +58,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFFFF"/>
-        <bgColor rgb="00FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00D0CECE"/>
         <bgColor rgb="00D0CECE"/>
       </patternFill>
@@ -78,6 +72,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00FFFF00"/>
         <bgColor rgb="00FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFFF"/>
+        <bgColor rgb="00FFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -132,18 +132,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -576,7 +576,28 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="F6" s="5" t="inlineStr">
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Introduction to Macroeconomics
+09:00-10:30
+room:Grey classroom: 203</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Introduction to Statistics
+09:00-10:30
+room:Grey classroom: 203</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>Introduction to Statistics
+09:00-10:30
+room:Grey classroom: 203</t>
+        </is>
+      </c>
+      <c r="F6" s="6" t="inlineStr">
         <is>
           <t>Introduction to Statistics
 09:00-10:30
@@ -590,7 +611,10 @@
           <t>09:15</t>
         </is>
       </c>
-      <c r="F7" s="6" t="n"/>
+      <c r="B7" s="7" t="n"/>
+      <c r="C7" s="7" t="n"/>
+      <c r="E7" s="7" t="n"/>
+      <c r="F7" s="7" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
@@ -598,7 +622,10 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="F8" s="6" t="n"/>
+      <c r="B8" s="7" t="n"/>
+      <c r="C8" s="7" t="n"/>
+      <c r="E8" s="7" t="n"/>
+      <c r="F8" s="7" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
@@ -606,7 +633,10 @@
           <t>09:45</t>
         </is>
       </c>
-      <c r="F9" s="6" t="n"/>
+      <c r="B9" s="7" t="n"/>
+      <c r="C9" s="7" t="n"/>
+      <c r="E9" s="7" t="n"/>
+      <c r="F9" s="7" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
@@ -614,7 +644,10 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="F10" s="6" t="n"/>
+      <c r="B10" s="7" t="n"/>
+      <c r="C10" s="7" t="n"/>
+      <c r="E10" s="7" t="n"/>
+      <c r="F10" s="7" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
@@ -622,7 +655,10 @@
           <t>10:15</t>
         </is>
       </c>
-      <c r="F11" s="7" t="n"/>
+      <c r="B11" s="8" t="n"/>
+      <c r="C11" s="8" t="n"/>
+      <c r="E11" s="8" t="n"/>
+      <c r="F11" s="8" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
@@ -644,27 +680,20 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="C14" s="8" t="inlineStr">
-        <is>
-          <t>Introduction to Macroeconomics
-11:00-12:30
-room:Grey classroom: 203</t>
-        </is>
-      </c>
-      <c r="D14" s="8" t="inlineStr">
-        <is>
-          <t>Introduction to Statistics
-11:00-12:30
-room:Grey classroom: 203</t>
-        </is>
-      </c>
-      <c r="E14" s="9" t="inlineStr">
+      <c r="D14" s="9" t="inlineStr">
         <is>
           <t>Ecology
 11:00-12:30
 room:Creative room: 104</t>
         </is>
       </c>
+      <c r="E14" s="9" t="inlineStr">
+        <is>
+          <t>Media Production Radio
+11:00-12:30
+room:Creative room: 104</t>
+        </is>
+      </c>
       <c r="F14" s="9" t="inlineStr">
         <is>
           <t>Ecology
@@ -679,10 +708,9 @@
           <t>11:15</t>
         </is>
       </c>
-      <c r="C15" s="6" t="n"/>
-      <c r="D15" s="6" t="n"/>
-      <c r="E15" s="6" t="n"/>
-      <c r="F15" s="6" t="n"/>
+      <c r="D15" s="7" t="n"/>
+      <c r="E15" s="7" t="n"/>
+      <c r="F15" s="7" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="4" t="inlineStr">
@@ -690,10 +718,9 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="C16" s="6" t="n"/>
-      <c r="D16" s="6" t="n"/>
-      <c r="E16" s="6" t="n"/>
-      <c r="F16" s="6" t="n"/>
+      <c r="D16" s="7" t="n"/>
+      <c r="E16" s="7" t="n"/>
+      <c r="F16" s="7" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
@@ -701,10 +728,9 @@
           <t>11:45</t>
         </is>
       </c>
-      <c r="C17" s="6" t="n"/>
-      <c r="D17" s="6" t="n"/>
-      <c r="E17" s="6" t="n"/>
-      <c r="F17" s="6" t="n"/>
+      <c r="D17" s="7" t="n"/>
+      <c r="E17" s="7" t="n"/>
+      <c r="F17" s="7" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="4" t="inlineStr">
@@ -712,10 +738,9 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="C18" s="6" t="n"/>
-      <c r="D18" s="6" t="n"/>
-      <c r="E18" s="6" t="n"/>
-      <c r="F18" s="6" t="n"/>
+      <c r="D18" s="7" t="n"/>
+      <c r="E18" s="7" t="n"/>
+      <c r="F18" s="7" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
@@ -723,10 +748,9 @@
           <t>12:15</t>
         </is>
       </c>
-      <c r="C19" s="7" t="n"/>
-      <c r="D19" s="7" t="n"/>
-      <c r="E19" s="7" t="n"/>
-      <c r="F19" s="7" t="n"/>
+      <c r="D19" s="8" t="n"/>
+      <c r="E19" s="8" t="n"/>
+      <c r="F19" s="8" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
@@ -792,19 +816,12 @@
       </c>
       <c r="D26" s="9" t="inlineStr">
         <is>
-          <t>Media Production Radio
-14:00-15:30
-room:Creative room: 104</t>
-        </is>
-      </c>
-      <c r="E26" s="9" t="inlineStr">
-        <is>
           <t>Visual Design
 14:00-15:30
 room:Creative room: 104</t>
         </is>
       </c>
-      <c r="F26" s="9" t="inlineStr">
+      <c r="E26" s="9" t="inlineStr">
         <is>
           <t>History 2: Making Central Asia
 14:00-15:30
@@ -818,11 +835,10 @@
           <t>14:15</t>
         </is>
       </c>
-      <c r="B27" s="6" t="n"/>
-      <c r="C27" s="6" t="n"/>
-      <c r="D27" s="6" t="n"/>
-      <c r="E27" s="6" t="n"/>
-      <c r="F27" s="6" t="n"/>
+      <c r="B27" s="7" t="n"/>
+      <c r="C27" s="7" t="n"/>
+      <c r="D27" s="7" t="n"/>
+      <c r="E27" s="7" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="4" t="inlineStr">
@@ -830,11 +846,10 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B28" s="6" t="n"/>
-      <c r="C28" s="6" t="n"/>
-      <c r="D28" s="6" t="n"/>
-      <c r="E28" s="6" t="n"/>
-      <c r="F28" s="6" t="n"/>
+      <c r="B28" s="7" t="n"/>
+      <c r="C28" s="7" t="n"/>
+      <c r="D28" s="7" t="n"/>
+      <c r="E28" s="7" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="4" t="inlineStr">
@@ -842,11 +857,10 @@
           <t>14:45</t>
         </is>
       </c>
-      <c r="B29" s="6" t="n"/>
-      <c r="C29" s="6" t="n"/>
-      <c r="D29" s="6" t="n"/>
-      <c r="E29" s="6" t="n"/>
-      <c r="F29" s="6" t="n"/>
+      <c r="B29" s="7" t="n"/>
+      <c r="C29" s="7" t="n"/>
+      <c r="D29" s="7" t="n"/>
+      <c r="E29" s="7" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="4" t="inlineStr">
@@ -854,11 +868,10 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="B30" s="6" t="n"/>
-      <c r="C30" s="6" t="n"/>
-      <c r="D30" s="6" t="n"/>
-      <c r="E30" s="6" t="n"/>
-      <c r="F30" s="6" t="n"/>
+      <c r="B30" s="7" t="n"/>
+      <c r="C30" s="7" t="n"/>
+      <c r="D30" s="7" t="n"/>
+      <c r="E30" s="7" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
@@ -866,11 +879,10 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="B31" s="7" t="n"/>
-      <c r="C31" s="7" t="n"/>
-      <c r="D31" s="7" t="n"/>
-      <c r="E31" s="7" t="n"/>
-      <c r="F31" s="7" t="n"/>
+      <c r="B31" s="8" t="n"/>
+      <c r="C31" s="8" t="n"/>
+      <c r="D31" s="8" t="n"/>
+      <c r="E31" s="8" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="4" t="inlineStr">
@@ -892,7 +904,7 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="B34" s="9" t="inlineStr">
+      <c r="D34" s="9" t="inlineStr">
         <is>
           <t>Visual Design
 16:00-17:30
@@ -913,8 +925,8 @@
           <t>16:15</t>
         </is>
       </c>
-      <c r="B35" s="6" t="n"/>
-      <c r="F35" s="6" t="n"/>
+      <c r="D35" s="7" t="n"/>
+      <c r="F35" s="7" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="4" t="inlineStr">
@@ -922,8 +934,8 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="B36" s="6" t="n"/>
-      <c r="F36" s="6" t="n"/>
+      <c r="D36" s="7" t="n"/>
+      <c r="F36" s="7" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="4" t="inlineStr">
@@ -931,8 +943,8 @@
           <t>16:45</t>
         </is>
       </c>
-      <c r="B37" s="6" t="n"/>
-      <c r="F37" s="6" t="n"/>
+      <c r="D37" s="7" t="n"/>
+      <c r="F37" s="7" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="4" t="inlineStr">
@@ -940,8 +952,8 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="B38" s="6" t="n"/>
-      <c r="F38" s="6" t="n"/>
+      <c r="D38" s="7" t="n"/>
+      <c r="F38" s="7" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="4" t="inlineStr">
@@ -949,8 +961,8 @@
           <t>17:15</t>
         </is>
       </c>
-      <c r="B39" s="7" t="n"/>
-      <c r="F39" s="7" t="n"/>
+      <c r="D39" s="8" t="n"/>
+      <c r="F39" s="8" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="4" t="inlineStr">
@@ -1142,24 +1154,25 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="20">
     <mergeCell ref="B26:B31"/>
     <mergeCell ref="D26:D31"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="F3:F4"/>
+    <mergeCell ref="C6:C11"/>
+    <mergeCell ref="D34:D39"/>
     <mergeCell ref="F34:F39"/>
     <mergeCell ref="F6:F11"/>
-    <mergeCell ref="C14:C19"/>
     <mergeCell ref="E14:E19"/>
     <mergeCell ref="C26:C31"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="D3:D4"/>
-    <mergeCell ref="F26:F31"/>
-    <mergeCell ref="B34:B39"/>
+    <mergeCell ref="E6:E11"/>
     <mergeCell ref="E26:E31"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="E3:E4"/>
+    <mergeCell ref="B6:B11"/>
     <mergeCell ref="D14:D19"/>
     <mergeCell ref="F14:F19"/>
   </mergeCells>

--- a/xlsx_files/CM Sophomore.xlsx
+++ b/xlsx_files/CM Sophomore.xlsx
@@ -43,7 +43,7 @@
       <sz val="14"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill/>
     </fill>
@@ -58,8 +58,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00FFFFFF"/>
+        <bgColor rgb="00FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00D0CECE"/>
         <bgColor rgb="00D0CECE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
     <fill>
@@ -72,12 +84,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="00FFFF00"/>
         <bgColor rgb="00FFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFFFF"/>
-        <bgColor rgb="00FFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -120,7 +126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -132,18 +138,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -578,30 +587,23 @@
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
-          <t>Introduction to Macroeconomics
+          <t>Ecology
 09:00-10:30
-room:Grey classroom: 203</t>
-        </is>
-      </c>
-      <c r="C6" s="5" t="inlineStr">
-        <is>
-          <t>Introduction to Statistics
+room:203</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>Visual Design
 09:00-10:30
-room:Grey classroom: 203</t>
-        </is>
-      </c>
-      <c r="E6" s="5" t="inlineStr">
-        <is>
-          <t>Introduction to Statistics
+room:203</t>
+        </is>
+      </c>
+      <c r="F6" s="6" t="inlineStr">
+        <is>
+          <t>History 2: Making Central Asia
 09:00-10:30
-room:Grey classroom: 203</t>
-        </is>
-      </c>
-      <c r="F6" s="6" t="inlineStr">
-        <is>
-          <t>Introduction to Statistics
-09:00-10:30
-room:Yellow classroom: 209</t>
+room:202</t>
         </is>
       </c>
     </row>
@@ -612,7 +614,6 @@
         </is>
       </c>
       <c r="B7" s="7" t="n"/>
-      <c r="C7" s="7" t="n"/>
       <c r="E7" s="7" t="n"/>
       <c r="F7" s="7" t="n"/>
     </row>
@@ -623,7 +624,6 @@
         </is>
       </c>
       <c r="B8" s="7" t="n"/>
-      <c r="C8" s="7" t="n"/>
       <c r="E8" s="7" t="n"/>
       <c r="F8" s="7" t="n"/>
     </row>
@@ -634,7 +634,6 @@
         </is>
       </c>
       <c r="B9" s="7" t="n"/>
-      <c r="C9" s="7" t="n"/>
       <c r="E9" s="7" t="n"/>
       <c r="F9" s="7" t="n"/>
     </row>
@@ -645,7 +644,6 @@
         </is>
       </c>
       <c r="B10" s="7" t="n"/>
-      <c r="C10" s="7" t="n"/>
       <c r="E10" s="7" t="n"/>
       <c r="F10" s="7" t="n"/>
     </row>
@@ -656,7 +654,6 @@
         </is>
       </c>
       <c r="B11" s="8" t="n"/>
-      <c r="C11" s="8" t="n"/>
       <c r="E11" s="8" t="n"/>
       <c r="F11" s="8" t="n"/>
     </row>
@@ -680,25 +677,25 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="D14" s="9" t="inlineStr">
-        <is>
-          <t>Ecology
+      <c r="B14" s="9" t="inlineStr">
+        <is>
+          <t>Introduction to Statistics
 11:00-12:30
-room:Creative room: 104</t>
-        </is>
-      </c>
-      <c r="E14" s="9" t="inlineStr">
+room:201</t>
+        </is>
+      </c>
+      <c r="C14" s="10" t="inlineStr">
         <is>
           <t>Media Production Radio
 11:00-12:30
-room:Creative room: 104</t>
-        </is>
-      </c>
-      <c r="F14" s="9" t="inlineStr">
-        <is>
-          <t>Ecology
+room:204</t>
+        </is>
+      </c>
+      <c r="D14" s="6" t="inlineStr">
+        <is>
+          <t>Introduction to Statistics
 11:00-12:30
-room:Creative room: 104</t>
+room:202</t>
         </is>
       </c>
     </row>
@@ -708,9 +705,9 @@
           <t>11:15</t>
         </is>
       </c>
+      <c r="B15" s="7" t="n"/>
+      <c r="C15" s="7" t="n"/>
       <c r="D15" s="7" t="n"/>
-      <c r="E15" s="7" t="n"/>
-      <c r="F15" s="7" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="4" t="inlineStr">
@@ -718,9 +715,9 @@
           <t>11:30</t>
         </is>
       </c>
+      <c r="B16" s="7" t="n"/>
+      <c r="C16" s="7" t="n"/>
       <c r="D16" s="7" t="n"/>
-      <c r="E16" s="7" t="n"/>
-      <c r="F16" s="7" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
@@ -728,9 +725,9 @@
           <t>11:45</t>
         </is>
       </c>
+      <c r="B17" s="7" t="n"/>
+      <c r="C17" s="7" t="n"/>
       <c r="D17" s="7" t="n"/>
-      <c r="E17" s="7" t="n"/>
-      <c r="F17" s="7" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="4" t="inlineStr">
@@ -738,9 +735,9 @@
           <t>12:00</t>
         </is>
       </c>
+      <c r="B18" s="7" t="n"/>
+      <c r="C18" s="7" t="n"/>
       <c r="D18" s="7" t="n"/>
-      <c r="E18" s="7" t="n"/>
-      <c r="F18" s="7" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
@@ -748,9 +745,9 @@
           <t>12:15</t>
         </is>
       </c>
+      <c r="B19" s="8" t="n"/>
+      <c r="C19" s="8" t="n"/>
       <c r="D19" s="8" t="n"/>
-      <c r="E19" s="8" t="n"/>
-      <c r="F19" s="8" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
@@ -800,32 +797,25 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B26" s="9" t="inlineStr">
-        <is>
-          <t>Media Production Radio
-14:00-15:30
-room:Creative room: 104</t>
-        </is>
-      </c>
-      <c r="C26" s="9" t="inlineStr">
+      <c r="C26" s="11" t="inlineStr">
         <is>
           <t>History 2: Making Central Asia
 14:00-15:30
-room:Creative room: 104</t>
-        </is>
-      </c>
-      <c r="D26" s="9" t="inlineStr">
-        <is>
-          <t>Visual Design
+room:209</t>
+        </is>
+      </c>
+      <c r="D26" s="6" t="inlineStr">
+        <is>
+          <t>Physical training
+14:00-16:00
+room:100</t>
+        </is>
+      </c>
+      <c r="E26" s="5" t="inlineStr">
+        <is>
+          <t>Introduction to Macroeconomics
 14:00-15:30
-room:Creative room: 104</t>
-        </is>
-      </c>
-      <c r="E26" s="9" t="inlineStr">
-        <is>
-          <t>History 2: Making Central Asia
-14:00-15:30
-room:Creative room: 104</t>
+room:203</t>
         </is>
       </c>
     </row>
@@ -835,7 +825,6 @@
           <t>14:15</t>
         </is>
       </c>
-      <c r="B27" s="7" t="n"/>
       <c r="C27" s="7" t="n"/>
       <c r="D27" s="7" t="n"/>
       <c r="E27" s="7" t="n"/>
@@ -846,7 +835,6 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B28" s="7" t="n"/>
       <c r="C28" s="7" t="n"/>
       <c r="D28" s="7" t="n"/>
       <c r="E28" s="7" t="n"/>
@@ -857,7 +845,6 @@
           <t>14:45</t>
         </is>
       </c>
-      <c r="B29" s="7" t="n"/>
       <c r="C29" s="7" t="n"/>
       <c r="D29" s="7" t="n"/>
       <c r="E29" s="7" t="n"/>
@@ -868,7 +855,6 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="B30" s="7" t="n"/>
       <c r="C30" s="7" t="n"/>
       <c r="D30" s="7" t="n"/>
       <c r="E30" s="7" t="n"/>
@@ -879,9 +865,8 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="B31" s="8" t="n"/>
       <c r="C31" s="8" t="n"/>
-      <c r="D31" s="8" t="n"/>
+      <c r="D31" s="7" t="n"/>
       <c r="E31" s="8" t="n"/>
     </row>
     <row r="32">
@@ -890,6 +875,7 @@
           <t>15:30</t>
         </is>
       </c>
+      <c r="D32" s="7" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="4" t="inlineStr">
@@ -897,6 +883,7 @@
           <t>15:45</t>
         </is>
       </c>
+      <c r="D33" s="8" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="4" t="inlineStr">
@@ -904,18 +891,25 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="D34" s="9" t="inlineStr">
-        <is>
-          <t>Visual Design
+      <c r="D34" s="6" t="inlineStr">
+        <is>
+          <t>State Exam on History of Kyrgyzstan
+16:00-18:00
+room:100</t>
+        </is>
+      </c>
+      <c r="E34" s="10" t="inlineStr">
+        <is>
+          <t>Ecology
 16:00-17:30
-room:Creative room: 104</t>
-        </is>
-      </c>
-      <c r="F34" s="10" t="inlineStr">
-        <is>
-          <t>Introduction to Macroeconomics
+room:204</t>
+        </is>
+      </c>
+      <c r="F34" s="6" t="inlineStr">
+        <is>
+          <t>Introduction to Statistics
 16:00-17:30
-room:Green classroom: 204</t>
+room:104</t>
         </is>
       </c>
     </row>
@@ -926,6 +920,7 @@
         </is>
       </c>
       <c r="D35" s="7" t="n"/>
+      <c r="E35" s="7" t="n"/>
       <c r="F35" s="7" t="n"/>
     </row>
     <row r="36">
@@ -935,6 +930,7 @@
         </is>
       </c>
       <c r="D36" s="7" t="n"/>
+      <c r="E36" s="7" t="n"/>
       <c r="F36" s="7" t="n"/>
     </row>
     <row r="37">
@@ -944,6 +940,7 @@
         </is>
       </c>
       <c r="D37" s="7" t="n"/>
+      <c r="E37" s="7" t="n"/>
       <c r="F37" s="7" t="n"/>
     </row>
     <row r="38">
@@ -953,6 +950,7 @@
         </is>
       </c>
       <c r="D38" s="7" t="n"/>
+      <c r="E38" s="7" t="n"/>
       <c r="F38" s="7" t="n"/>
     </row>
     <row r="39">
@@ -961,7 +959,8 @@
           <t>17:15</t>
         </is>
       </c>
-      <c r="D39" s="8" t="n"/>
+      <c r="D39" s="7" t="n"/>
+      <c r="E39" s="8" t="n"/>
       <c r="F39" s="8" t="n"/>
     </row>
     <row r="40">
@@ -970,6 +969,7 @@
           <t>17:30</t>
         </is>
       </c>
+      <c r="D40" s="7" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="4" t="inlineStr">
@@ -977,6 +977,7 @@
           <t>17:45</t>
         </is>
       </c>
+      <c r="D41" s="8" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="4" t="inlineStr">
@@ -1155,26 +1156,26 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B26:B31"/>
     <mergeCell ref="D26:D31"/>
     <mergeCell ref="B3:B4"/>
+    <mergeCell ref="D26:D33"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="C6:C11"/>
-    <mergeCell ref="D34:D39"/>
     <mergeCell ref="F34:F39"/>
     <mergeCell ref="F6:F11"/>
-    <mergeCell ref="E14:E19"/>
+    <mergeCell ref="C14:C19"/>
     <mergeCell ref="C26:C31"/>
+    <mergeCell ref="D34:D41"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E34:E39"/>
+    <mergeCell ref="B14:B19"/>
     <mergeCell ref="E6:E11"/>
     <mergeCell ref="E26:E31"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="B6:B11"/>
     <mergeCell ref="D14:D19"/>
-    <mergeCell ref="F14:F19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/xlsx_files/CM Sophomore.xlsx
+++ b/xlsx_files/CM Sophomore.xlsx
@@ -43,7 +43,7 @@
       <sz val="14"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill/>
     </fill>
@@ -64,8 +64,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D0CECE"/>
-        <bgColor rgb="00D0CECE"/>
+        <fgColor rgb="0092D050"/>
+        <bgColor rgb="0092D050"/>
       </patternFill>
     </fill>
     <fill>
@@ -76,14 +76,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0092D050"/>
-        <bgColor rgb="0092D050"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFF00"/>
-        <bgColor rgb="00FFFF00"/>
+        <fgColor rgb="00D0CECE"/>
+        <bgColor rgb="00D0CECE"/>
       </patternFill>
     </fill>
   </fills>
@@ -126,7 +120,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -138,23 +132,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -587,23 +578,30 @@
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
+          <t>Media Production Radio
+09:00-10:30
+room:203</t>
+        </is>
+      </c>
+      <c r="C6" s="6" t="inlineStr">
+        <is>
           <t>Ecology
 09:00-10:30
-room:203</t>
-        </is>
-      </c>
-      <c r="E6" s="5" t="inlineStr">
-        <is>
-          <t>Visual Design
+room:204</t>
+        </is>
+      </c>
+      <c r="D6" s="7" t="inlineStr">
+        <is>
+          <t>Physical training
+09:00-11:00
+room:100</t>
+        </is>
+      </c>
+      <c r="E6" s="8" t="inlineStr">
+        <is>
+          <t>Introduction to Macroeconomics
 09:00-10:30
-room:203</t>
-        </is>
-      </c>
-      <c r="F6" s="6" t="inlineStr">
-        <is>
-          <t>History 2: Making Central Asia
-09:00-10:30
-room:202</t>
+room:201</t>
         </is>
       </c>
     </row>
@@ -613,9 +611,10 @@
           <t>09:15</t>
         </is>
       </c>
-      <c r="B7" s="7" t="n"/>
-      <c r="E7" s="7" t="n"/>
-      <c r="F7" s="7" t="n"/>
+      <c r="B7" s="9" t="n"/>
+      <c r="C7" s="9" t="n"/>
+      <c r="D7" s="9" t="n"/>
+      <c r="E7" s="9" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
@@ -623,9 +622,10 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="B8" s="7" t="n"/>
-      <c r="E8" s="7" t="n"/>
-      <c r="F8" s="7" t="n"/>
+      <c r="B8" s="9" t="n"/>
+      <c r="C8" s="9" t="n"/>
+      <c r="D8" s="9" t="n"/>
+      <c r="E8" s="9" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
@@ -633,9 +633,10 @@
           <t>09:45</t>
         </is>
       </c>
-      <c r="B9" s="7" t="n"/>
-      <c r="E9" s="7" t="n"/>
-      <c r="F9" s="7" t="n"/>
+      <c r="B9" s="9" t="n"/>
+      <c r="C9" s="9" t="n"/>
+      <c r="D9" s="9" t="n"/>
+      <c r="E9" s="9" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
@@ -643,9 +644,10 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="B10" s="7" t="n"/>
-      <c r="E10" s="7" t="n"/>
-      <c r="F10" s="7" t="n"/>
+      <c r="B10" s="9" t="n"/>
+      <c r="C10" s="9" t="n"/>
+      <c r="D10" s="9" t="n"/>
+      <c r="E10" s="9" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
@@ -653,9 +655,10 @@
           <t>10:15</t>
         </is>
       </c>
-      <c r="B11" s="8" t="n"/>
-      <c r="E11" s="8" t="n"/>
-      <c r="F11" s="8" t="n"/>
+      <c r="B11" s="10" t="n"/>
+      <c r="C11" s="10" t="n"/>
+      <c r="D11" s="9" t="n"/>
+      <c r="E11" s="10" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
@@ -663,6 +666,7 @@
           <t>10:30</t>
         </is>
       </c>
+      <c r="D12" s="9" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="4" t="inlineStr">
@@ -670,6 +674,7 @@
           <t>10:45</t>
         </is>
       </c>
+      <c r="D13" s="10" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="4" t="inlineStr">
@@ -677,25 +682,18 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B14" s="9" t="inlineStr">
+      <c r="C14" s="7" t="inlineStr">
+        <is>
+          <t>State Exam on History of Kyrgyzstan
+11:00-13:00
+room:104</t>
+        </is>
+      </c>
+      <c r="F14" s="5" t="inlineStr">
         <is>
           <t>Introduction to Statistics
 11:00-12:30
-room:201</t>
-        </is>
-      </c>
-      <c r="C14" s="10" t="inlineStr">
-        <is>
-          <t>Media Production Radio
-11:00-12:30
-room:204</t>
-        </is>
-      </c>
-      <c r="D14" s="6" t="inlineStr">
-        <is>
-          <t>Introduction to Statistics
-11:00-12:30
-room:202</t>
+room:203</t>
         </is>
       </c>
     </row>
@@ -705,9 +703,8 @@
           <t>11:15</t>
         </is>
       </c>
-      <c r="B15" s="7" t="n"/>
-      <c r="C15" s="7" t="n"/>
-      <c r="D15" s="7" t="n"/>
+      <c r="C15" s="9" t="n"/>
+      <c r="F15" s="9" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="4" t="inlineStr">
@@ -715,9 +712,8 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B16" s="7" t="n"/>
-      <c r="C16" s="7" t="n"/>
-      <c r="D16" s="7" t="n"/>
+      <c r="C16" s="9" t="n"/>
+      <c r="F16" s="9" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
@@ -725,9 +721,8 @@
           <t>11:45</t>
         </is>
       </c>
-      <c r="B17" s="7" t="n"/>
-      <c r="C17" s="7" t="n"/>
-      <c r="D17" s="7" t="n"/>
+      <c r="C17" s="9" t="n"/>
+      <c r="F17" s="9" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="4" t="inlineStr">
@@ -735,9 +730,8 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B18" s="7" t="n"/>
-      <c r="C18" s="7" t="n"/>
-      <c r="D18" s="7" t="n"/>
+      <c r="C18" s="9" t="n"/>
+      <c r="F18" s="9" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
@@ -745,9 +739,8 @@
           <t>12:15</t>
         </is>
       </c>
-      <c r="B19" s="8" t="n"/>
-      <c r="C19" s="8" t="n"/>
-      <c r="D19" s="8" t="n"/>
+      <c r="C19" s="9" t="n"/>
+      <c r="F19" s="10" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
@@ -755,6 +748,7 @@
           <t>12:30</t>
         </is>
       </c>
+      <c r="C20" s="9" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
@@ -762,6 +756,7 @@
           <t>12:45</t>
         </is>
       </c>
+      <c r="C21" s="10" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="4" t="inlineStr">
@@ -797,23 +792,16 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="C26" s="11" t="inlineStr">
-        <is>
-          <t>History 2: Making Central Asia
+      <c r="B26" s="7" t="inlineStr">
+        <is>
+          <t>Visual Design
 14:00-15:30
-room:209</t>
-        </is>
-      </c>
-      <c r="D26" s="6" t="inlineStr">
-        <is>
-          <t>Physical training
-14:00-16:00
-room:100</t>
-        </is>
-      </c>
-      <c r="E26" s="5" t="inlineStr">
-        <is>
-          <t>Introduction to Macroeconomics
+room:104</t>
+        </is>
+      </c>
+      <c r="D26" s="5" t="inlineStr">
+        <is>
+          <t>Media Production Radio
 14:00-15:30
 room:203</t>
         </is>
@@ -825,9 +813,8 @@
           <t>14:15</t>
         </is>
       </c>
-      <c r="C27" s="7" t="n"/>
-      <c r="D27" s="7" t="n"/>
-      <c r="E27" s="7" t="n"/>
+      <c r="B27" s="9" t="n"/>
+      <c r="D27" s="9" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="4" t="inlineStr">
@@ -835,9 +822,8 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="C28" s="7" t="n"/>
-      <c r="D28" s="7" t="n"/>
-      <c r="E28" s="7" t="n"/>
+      <c r="B28" s="9" t="n"/>
+      <c r="D28" s="9" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="4" t="inlineStr">
@@ -845,9 +831,8 @@
           <t>14:45</t>
         </is>
       </c>
-      <c r="C29" s="7" t="n"/>
-      <c r="D29" s="7" t="n"/>
-      <c r="E29" s="7" t="n"/>
+      <c r="B29" s="9" t="n"/>
+      <c r="D29" s="9" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="4" t="inlineStr">
@@ -855,9 +840,8 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="C30" s="7" t="n"/>
-      <c r="D30" s="7" t="n"/>
-      <c r="E30" s="7" t="n"/>
+      <c r="B30" s="9" t="n"/>
+      <c r="D30" s="9" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
@@ -865,9 +849,8 @@
           <t>15:15</t>
         </is>
       </c>
-      <c r="C31" s="8" t="n"/>
-      <c r="D31" s="7" t="n"/>
-      <c r="E31" s="8" t="n"/>
+      <c r="B31" s="10" t="n"/>
+      <c r="D31" s="10" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="4" t="inlineStr">
@@ -875,7 +858,6 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="D32" s="7" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="4" t="inlineStr">
@@ -883,7 +865,6 @@
           <t>15:45</t>
         </is>
       </c>
-      <c r="D33" s="8" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="4" t="inlineStr">
@@ -891,27 +872,6 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="D34" s="6" t="inlineStr">
-        <is>
-          <t>State Exam on History of Kyrgyzstan
-16:00-18:00
-room:100</t>
-        </is>
-      </c>
-      <c r="E34" s="10" t="inlineStr">
-        <is>
-          <t>Ecology
-16:00-17:30
-room:204</t>
-        </is>
-      </c>
-      <c r="F34" s="6" t="inlineStr">
-        <is>
-          <t>Introduction to Statistics
-16:00-17:30
-room:104</t>
-        </is>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="4" t="inlineStr">
@@ -919,9 +879,6 @@
           <t>16:15</t>
         </is>
       </c>
-      <c r="D35" s="7" t="n"/>
-      <c r="E35" s="7" t="n"/>
-      <c r="F35" s="7" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="4" t="inlineStr">
@@ -929,9 +886,6 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="D36" s="7" t="n"/>
-      <c r="E36" s="7" t="n"/>
-      <c r="F36" s="7" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="4" t="inlineStr">
@@ -939,9 +893,6 @@
           <t>16:45</t>
         </is>
       </c>
-      <c r="D37" s="7" t="n"/>
-      <c r="E37" s="7" t="n"/>
-      <c r="F37" s="7" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="4" t="inlineStr">
@@ -949,9 +900,6 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="D38" s="7" t="n"/>
-      <c r="E38" s="7" t="n"/>
-      <c r="F38" s="7" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="4" t="inlineStr">
@@ -959,9 +907,6 @@
           <t>17:15</t>
         </is>
       </c>
-      <c r="D39" s="7" t="n"/>
-      <c r="E39" s="8" t="n"/>
-      <c r="F39" s="8" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="4" t="inlineStr">
@@ -969,7 +914,6 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="D40" s="7" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="4" t="inlineStr">
@@ -977,7 +921,6 @@
           <t>17:45</t>
         </is>
       </c>
-      <c r="D41" s="8" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="4" t="inlineStr">
@@ -1155,27 +1098,23 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="16">
+    <mergeCell ref="B26:B31"/>
     <mergeCell ref="D26:D31"/>
+    <mergeCell ref="C3:C4"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="D26:D33"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="E3:E4"/>
     <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B6:B11"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="F34:F39"/>
-    <mergeCell ref="F6:F11"/>
-    <mergeCell ref="C14:C19"/>
-    <mergeCell ref="C26:C31"/>
-    <mergeCell ref="D34:D41"/>
-    <mergeCell ref="A3:A4"/>
     <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E34:E39"/>
-    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="C6:C11"/>
     <mergeCell ref="E6:E11"/>
-    <mergeCell ref="E26:E31"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="B6:B11"/>
-    <mergeCell ref="D14:D19"/>
+    <mergeCell ref="D6:D11"/>
+    <mergeCell ref="D6:D13"/>
+    <mergeCell ref="F14:F19"/>
+    <mergeCell ref="C14:C21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
